--- a/csbBirimFiyat/1.xlsx
+++ b/csbBirimFiyat/1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>701-101</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>MONTAJ</t>
+  </si>
+  <si>
+    <t>708-100</t>
+  </si>
+  <si>
+    <t>SAÇ, DOLAP TİPİ ANA TABLOLAR (TS EN 61439-1/2 )</t>
+  </si>
+  <si>
+    <t>708-101</t>
+  </si>
+  <si>
+    <t>SAC DOLAP TiPi ANA TAB.30x30x40 cm.GÖZ (TS EN 61439-1/2 )</t>
   </si>
 </sst>
 </file>
@@ -69,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,12 +89,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,6 +471,32 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/csbBirimFiyat/1.xlsx
+++ b/csbBirimFiyat/1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="206">
   <si>
     <t>701-101</t>
   </si>
@@ -58,6 +58,582 @@
   </si>
   <si>
     <t>SAC DOLAP TiPi ANA TAB.30x30x40 cm.GÖZ (TS EN 61439-1/2 )</t>
+  </si>
+  <si>
+    <t>701-200</t>
+  </si>
+  <si>
+    <t>ÖZEL SAÇ PANOLAR (TS EN 61439-1/2 )</t>
+  </si>
+  <si>
+    <t>701-201</t>
+  </si>
+  <si>
+    <t>ÖNDEN KAPAKLI SAÇ PANO (TS EN 61439-1/2 )</t>
+  </si>
+  <si>
+    <t>701-202</t>
+  </si>
+  <si>
+    <t>ÖN VE ARKADAN KAPAKLI SAÇ PANO (TS EN 61439-1/2 )</t>
+  </si>
+  <si>
+    <t>702-100</t>
+  </si>
+  <si>
+    <t>İLAVE SAÇ PANOLAR</t>
+  </si>
+  <si>
+    <t>702-101</t>
+  </si>
+  <si>
+    <t>iLAVE SAC PANO 800 mm.</t>
+  </si>
+  <si>
+    <t>702-102</t>
+  </si>
+  <si>
+    <t>İLAVE SAC PANO 900 mm.</t>
+  </si>
+  <si>
+    <t>703-101</t>
+  </si>
+  <si>
+    <t>TEL KAFESLİ SAÇ KAPI</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>703-102</t>
+  </si>
+  <si>
+    <t>TEL KAFESLİ MUHAFAZA</t>
+  </si>
+  <si>
+    <t>704-100</t>
+  </si>
+  <si>
+    <t>SIVA ÜSTÜ SAÇ TABLOLAR (TS EN 61439-1/2 )</t>
+  </si>
+  <si>
+    <t>704-101</t>
+  </si>
+  <si>
+    <t>SIVA ÜSTÜ SAC TABLO 0.05-0.10 M2. (TS EN 61439-1/2 )</t>
+  </si>
+  <si>
+    <t>704-102</t>
+  </si>
+  <si>
+    <t>SIVA ÜSTÜ SAC TABLO 0.10-0.20 M2. (TS EN 61439-1/2 )</t>
+  </si>
+  <si>
+    <t>704-103</t>
+  </si>
+  <si>
+    <t>SIVA ÜSTÜ SAC TABLO 0.20-0.30 M2. (TS EN 61439-1/2 )</t>
+  </si>
+  <si>
+    <t>704-104</t>
+  </si>
+  <si>
+    <t>SIVA ÜSTÜ SAC TABLO 0.30-0.40 M2. (TS EN 61439-1/2 )</t>
+  </si>
+  <si>
+    <t>704-105</t>
+  </si>
+  <si>
+    <t>SIVA ÜSTÜ SAC TABLO 0.40-0.50 M2. (TS EN 61439-1/2 )</t>
+  </si>
+  <si>
+    <t>705-100</t>
+  </si>
+  <si>
+    <t>GÖMME TİP SAÇ TABLOLAR (TS EN 61439-1/2 )</t>
+  </si>
+  <si>
+    <t>705-101</t>
+  </si>
+  <si>
+    <t>GÖMME TİP SAC TABLO 0.05-0.10 M2. (TS EN 61439-1/2 )</t>
+  </si>
+  <si>
+    <t>705-102</t>
+  </si>
+  <si>
+    <t>GÖMME TİP SAC TABLO 0.10-0.20 M2. (TS EN 61439-1/2 )</t>
+  </si>
+  <si>
+    <t>705-103</t>
+  </si>
+  <si>
+    <t>GöMME TİP SAC TABLO 0.20-0.30 M2. (TS EN 61439-1/2 )</t>
+  </si>
+  <si>
+    <t>705-104</t>
+  </si>
+  <si>
+    <t>GÖMME TİP SAC TABLO 0.30-0.40 M2. (TS EN 61439-1/2 )</t>
+  </si>
+  <si>
+    <t>705-105</t>
+  </si>
+  <si>
+    <t>GÖMME TiP SAC TABLO 0.40-0.50 M2. (TS EN 61439-1/2 )</t>
+  </si>
+  <si>
+    <t>706-100</t>
+  </si>
+  <si>
+    <t>LOJMAN TİPİ SAC TABLO 0.05 M2.</t>
+  </si>
+  <si>
+    <t>707-100</t>
+  </si>
+  <si>
+    <t>ANAHTARLI OTOMATİK SİGORTALI LOJMAN TİPİ SAÇ TABLOLAR</t>
+  </si>
+  <si>
+    <t>707-101</t>
+  </si>
+  <si>
+    <t>ANAHTARLI OTOMATİK SİGORTALI LOJMAN TİPİ SAC TABLO 4 SİGORTALIK</t>
+  </si>
+  <si>
+    <t>707-102</t>
+  </si>
+  <si>
+    <t>ANAHTARLI OTOMATİK SİGORTALI LOJMAN TİPİ SAC TABLO 8 SİGORTALIK</t>
+  </si>
+  <si>
+    <t>707-103</t>
+  </si>
+  <si>
+    <t>ANAHTARLI OTOMATİK SİGORTALI LOJMAN TİPİ SAC TABLO 12 SİGORTALIK</t>
+  </si>
+  <si>
+    <t>707-200</t>
+  </si>
+  <si>
+    <t>HALOJENSİZ ALEV GECİKTİRİCİ TİP SIVA ÜSTÜ TABLOLAR</t>
+  </si>
+  <si>
+    <t>707-201</t>
+  </si>
+  <si>
+    <t>HALOJENSİZ ALEV GECİKTİRİCİ TİP SIVA ÜSTÜ TABLO 4 OTOMATİK SİGORTALIK</t>
+  </si>
+  <si>
+    <t>707-202</t>
+  </si>
+  <si>
+    <t>HALOJENSİZ ALEV GECİKTİRİCİ TİP SIVA ÜSTÜ TABLO 6 OTOMATİK SİGORTALIK</t>
+  </si>
+  <si>
+    <t>707-203</t>
+  </si>
+  <si>
+    <t>HALOJENSİZ ALEV GECİKTİRİCİ TİP SIVA ÜSTÜ TABLO 8 OTOMATİK SİGORTALIK</t>
+  </si>
+  <si>
+    <t>707-204</t>
+  </si>
+  <si>
+    <t>HALOJENSİZ ALEV GECİKTİRİCİ TİP SIVA ÜSTÜ TABLO 12 OTOMATİK SİGORTALIK</t>
+  </si>
+  <si>
+    <t>707-205</t>
+  </si>
+  <si>
+    <t>HALOJENSİZ ALEV GECİKTİRİCİ TİP SIVA ÜSTÜ TABLO 16 OTOMATİK SİGORTALIK</t>
+  </si>
+  <si>
+    <t>707-206</t>
+  </si>
+  <si>
+    <t>HALOJENSİZ ALEV GECİKTİRİCİ TİP SIVA ÜSTÜ TABLO 18 OTOMATİK SİGORTALIK</t>
+  </si>
+  <si>
+    <t>707-207</t>
+  </si>
+  <si>
+    <t>HALOJENSİZ ALEV GECİKTİRİCİ TİP SIVA ÜSTÜ TABLO 24 OTOMATİK SİGORTALIK</t>
+  </si>
+  <si>
+    <t>707-208</t>
+  </si>
+  <si>
+    <t>HALOJENSİZ ALEV GECİKTİRİCİ TİP SIVA ÜSTÜ TABLO 36 OTOMATİK SİGORTALIK</t>
+  </si>
+  <si>
+    <t>707-300</t>
+  </si>
+  <si>
+    <t>HALOJENSİZ ALEV GECİKTİRİCİ TİP SIVA ALTI TABLOLAR</t>
+  </si>
+  <si>
+    <t>707-301</t>
+  </si>
+  <si>
+    <t>HALOJENSİZ ALEV GECİKTİRİCİ TİP SIVA ALTI TABLO 4 OTOMATİK SİGORTALIK</t>
+  </si>
+  <si>
+    <t>707-302</t>
+  </si>
+  <si>
+    <t>HALOJENSİZ ALEV GECİKTİRİCİ TİP SIVA ALTI TABLO 6 OTOMATİK SİGORTALIK</t>
+  </si>
+  <si>
+    <t>707-303</t>
+  </si>
+  <si>
+    <t>HALOJENSİZ ALEV GECİKTİRİCİ TİP SIVA ALTI TABLO 8 OTOMATİK SİGORTALIK</t>
+  </si>
+  <si>
+    <t>707-304</t>
+  </si>
+  <si>
+    <t>HALOJENSİZ ALEV GECİKTİRİCİ TİP SIVA ALTI TABLO 12 OTOMATİK SİGORTALIK</t>
+  </si>
+  <si>
+    <t>707-305</t>
+  </si>
+  <si>
+    <t>HALOJENSİZ ALEV GECİKTİRİCİ TİP SIVA ALTI TABLO 16 OTOMATİK SİGORTALIK</t>
+  </si>
+  <si>
+    <t>707-306</t>
+  </si>
+  <si>
+    <t>HALOJENSİZ ALEV GECİKTİRİCİ TİP SIVA ALTI TABLO 18 OTOMATİK SİGORTALIK</t>
+  </si>
+  <si>
+    <t>707-307</t>
+  </si>
+  <si>
+    <t>HALOJENSİZ ALEV GECİKTİRİCİ TİP SIVA ALTI TABLO 24 OTOMATİK SİGORTALIK</t>
+  </si>
+  <si>
+    <t>707-308</t>
+  </si>
+  <si>
+    <t>HALOJENSİZ ALEV GECİKTİRİCİ TİP SIVA ALTI TABLO 36 OTOMATİK SİGORTALIK</t>
+  </si>
+  <si>
+    <t>708-102</t>
+  </si>
+  <si>
+    <t>SAC DOLAP TİPİ ANA TAB.50x50x50 cm.GÖZ (TS EN 61439-1/2 )</t>
+  </si>
+  <si>
+    <t>708-200</t>
+  </si>
+  <si>
+    <t>KLİMA, HAVALANDIRMA VE SOĞUTMA TESİSATLARI İÇİN ÖZEL ELEKTRİK TABLOLARI (TS EN 61439-1/2 )</t>
+  </si>
+  <si>
+    <t>709-000</t>
+  </si>
+  <si>
+    <t>ETANŞ DÖKÜM TABLO</t>
+  </si>
+  <si>
+    <t>709-100</t>
+  </si>
+  <si>
+    <t>DEMİR VE ALÜMİNYUM DÖKÜM ETANŞ TABLO</t>
+  </si>
+  <si>
+    <t>709-101</t>
+  </si>
+  <si>
+    <t>DEMİR ve ALÜMİNYUM DÖKÜM ETANŞ TABLO 0.05 m2.</t>
+  </si>
+  <si>
+    <t>709-102</t>
+  </si>
+  <si>
+    <t>DEMİR ve ALÜMİNYUM DÖKÜM ETANŞ TABLO 0.10 m2.</t>
+  </si>
+  <si>
+    <t>709-103</t>
+  </si>
+  <si>
+    <t>DEMİR ve ALÜMİNYUM DÖKÜM ETANŞ TABLO 0.15 m2.</t>
+  </si>
+  <si>
+    <t>709-104</t>
+  </si>
+  <si>
+    <t>DEMİR ve ALÜMİNYUM DÖKÜM ETANŞ TABLO 0.20 m2.</t>
+  </si>
+  <si>
+    <t>710-100</t>
+  </si>
+  <si>
+    <t>BAKIR BARA TEMİNİ, MONTAJI VE BOYASI</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>711-000</t>
+  </si>
+  <si>
+    <t>BIÇAKLI ŞALTERLER</t>
+  </si>
+  <si>
+    <t>711-100</t>
+  </si>
+  <si>
+    <t>TABLO ARKASINA MONTE EDİLİR TİPTEN BIÇAKLI ŞALTERLER</t>
+  </si>
+  <si>
+    <t>711-101</t>
+  </si>
+  <si>
+    <t>BIÇAKLI ŞALTER 3*100 A. (Tablo Arkasına Monte)</t>
+  </si>
+  <si>
+    <t>711-102</t>
+  </si>
+  <si>
+    <t>BIÇAKLI ŞALTER 3*200 A. (Tablo Arkasına Monte)</t>
+  </si>
+  <si>
+    <t>711-103</t>
+  </si>
+  <si>
+    <t>BIÇAKLI ŞALTER 3*400 A. (Tablo Arkasına Monte)</t>
+  </si>
+  <si>
+    <t>711-104</t>
+  </si>
+  <si>
+    <t>BIÇAKLI ŞALTER 3*630 A. (Tablo Arkasına Monte)</t>
+  </si>
+  <si>
+    <t>711-105</t>
+  </si>
+  <si>
+    <t>BIÇAKLI ŞALTER 3*1000 A. (Tablo Arkasına Monte)</t>
+  </si>
+  <si>
+    <t>711-106</t>
+  </si>
+  <si>
+    <t>BIÇAKLI ŞALTER 3*1600 A. (Tablo Arkasına Monte)</t>
+  </si>
+  <si>
+    <t>711-107</t>
+  </si>
+  <si>
+    <t>BIÇAKLI ŞALTER 3*2000 A. (Tablo Arkasına Monte)</t>
+  </si>
+  <si>
+    <t>711-108</t>
+  </si>
+  <si>
+    <t>BIÇAKLI ŞALTER 3*1200 A. (Tablo Arkasına Monte)</t>
+  </si>
+  <si>
+    <t>711-109</t>
+  </si>
+  <si>
+    <t>BIÇAKLI ŞALTER 3*2500 A. (Tablo Arkasına Monte)</t>
+  </si>
+  <si>
+    <t>711-200</t>
+  </si>
+  <si>
+    <t>TABLO ÜSTÜNE MONTE EDİLİR TİPTEN BIÇAKLI ŞALTERLER</t>
+  </si>
+  <si>
+    <t>711-201</t>
+  </si>
+  <si>
+    <t>BIÇAKLI ŞALTER 2*25 A. (Tablo Üzerine Monte)</t>
+  </si>
+  <si>
+    <t>711-202</t>
+  </si>
+  <si>
+    <t>BIÇAKLI ŞALTER 3*25 A. (Tablo Üzerine Monte)</t>
+  </si>
+  <si>
+    <t>711-203</t>
+  </si>
+  <si>
+    <t>BIÇAKLI ŞALTER 3*63 A. (Tablo Üzerine Monte)</t>
+  </si>
+  <si>
+    <t>711-204</t>
+  </si>
+  <si>
+    <t>BIÇAKLI ŞALTER 3*100 A. (Tablo Üzerine Monte)</t>
+  </si>
+  <si>
+    <t>712-000</t>
+  </si>
+  <si>
+    <t>ENVERSÖR TİPİ BIÇAKLI ŞALTERLER</t>
+  </si>
+  <si>
+    <t>712-100</t>
+  </si>
+  <si>
+    <t>TABLO ARKASINA MONTE EDİLİR TİPTEN ENVERSÖR ŞALTERLER</t>
+  </si>
+  <si>
+    <t>712-101</t>
+  </si>
+  <si>
+    <t>ENVERSÖR BIÇAKLI ŞALTER 3*100 A. (Tablo Arkasına)</t>
+  </si>
+  <si>
+    <t>712-102</t>
+  </si>
+  <si>
+    <t>ENVERSÖR BIÇAKLI ŞALTER 3*200 A. (Tablo Arkasına)</t>
+  </si>
+  <si>
+    <t>712-103</t>
+  </si>
+  <si>
+    <t>ENVERSÖR BIÇAKLI ŞALTER 3*400 A. (Tablo Arkasına)</t>
+  </si>
+  <si>
+    <t>712-104</t>
+  </si>
+  <si>
+    <t>ENVERSÖR BIÇAKLI ŞALTER 3*630 A. (Tablo Arkasına)</t>
+  </si>
+  <si>
+    <t>712-105</t>
+  </si>
+  <si>
+    <t>ENVERSÖR BIÇAKLI ŞALTER 3*1000 A. (Tablo Arkasına)</t>
+  </si>
+  <si>
+    <t>712-106</t>
+  </si>
+  <si>
+    <t>ENVERSÖR BIÇAKLI ŞALTER 3*1600 A. (Tablo Arkasına)</t>
+  </si>
+  <si>
+    <t>712-107</t>
+  </si>
+  <si>
+    <t>ENVERSÖR BIÇAKLI ŞALTER 3*2000 A. (Tablo Arkasına)</t>
+  </si>
+  <si>
+    <t>712-108</t>
+  </si>
+  <si>
+    <t>ENVERSÖR BIÇAKLI ŞALTER 3*1200 A. (Tablo Arkasına)</t>
+  </si>
+  <si>
+    <t>712-109</t>
+  </si>
+  <si>
+    <t>ENVERSÖR BIÇAKLI ŞALTER 3*2500 A. (Tablo Arkasına)</t>
+  </si>
+  <si>
+    <t>712-200</t>
+  </si>
+  <si>
+    <t>TABLO ÜSTÜNE MONTE EDİLİR TİPTEN ENVERSÖR ŞALTERLER</t>
+  </si>
+  <si>
+    <t>712-201</t>
+  </si>
+  <si>
+    <t>ENVERSÖR BIÇAKLI ŞALTER 3*25 A. (Tablo Üzerine)</t>
+  </si>
+  <si>
+    <t>712-202</t>
+  </si>
+  <si>
+    <t>ENVERSÖR BIÇAKLI ŞALTER 3*63 A. (Tablo Üzerine)</t>
+  </si>
+  <si>
+    <t>712-203</t>
+  </si>
+  <si>
+    <t>ENVERSÖR BIÇAKLI ŞALTER 3*100 A. (Tablo Üzerine)</t>
+  </si>
+  <si>
+    <t>712-204</t>
+  </si>
+  <si>
+    <t>ENVERSÖR BIÇAKLI ŞALTER 3*200 A. (Tablo Üzerine)</t>
+  </si>
+  <si>
+    <t>713-000</t>
+  </si>
+  <si>
+    <t>PAKO ŞALTERLER</t>
+  </si>
+  <si>
+    <t>713-100</t>
+  </si>
+  <si>
+    <t>TABLO ÜSTÜNE MONTE EDİLEN TİPTEN SEÇİCİ PAKO ŞALTERLER</t>
+  </si>
+  <si>
+    <t>713-101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEÇİCİ TİP PAKO ŞALTER 2*16 A. (Tablo Üzerine) (TS 4915 EN 60669-1, TS EN 60947-3) </t>
+  </si>
+  <si>
+    <t>713-102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEÇİCİ TİP PAKO ŞALTER 2*25 A. (Tablo Üzerine) (TS 4915 EN 60669-1, TS EN 60947-3) </t>
+  </si>
+  <si>
+    <t>713-103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEÇİCİ TİP PAKO ŞALTER 2*40 A. (Tablo Üzerine) (TS 4915 EN 60669-1, TS EN 60947-3) </t>
+  </si>
+  <si>
+    <t>713-104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEÇİCİ TİP PAKO ŞALTER 3*25 A. (Tablo Üzerine) (TS 4915 EN 60669-1, TS EN 60947-3) </t>
+  </si>
+  <si>
+    <t>713-105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEÇİCİ TİP PAKO ŞALTER 3*40 A. (Tablo Üzerine) (TS 4915 EN 60669-1, TS EN 60947-3) </t>
+  </si>
+  <si>
+    <t>713-106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEÇİCİ TİP PAKO ŞALTER 3*63 A. (Tablo Üzerine) (TS 4915 EN 60669-1, TS EN 60947-3) </t>
+  </si>
+  <si>
+    <t>713-107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEÇİCİ TİP PAKO ŞALTER 3*100 A. (Tablo Üzerine) (TS 4915 EN 60669-1, TS EN 60947-3) </t>
+  </si>
+  <si>
+    <t>713-108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEÇİCİ TİP PAKO ŞALTER 3*125 A. (Tablo Üzerine) (TS 4915 EN 60669-1, TS EN 60947-3) </t>
+  </si>
+  <si>
+    <t>713-109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEÇİCİ TİP PAKO ŞALTER 3*160 A. (Tablo Üzerine) (TS 4915 EN 60669-1, TS EN 60947-3) </t>
   </si>
 </sst>
 </file>
@@ -420,15 +996,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -450,52 +1027,1277 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
